--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/12/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/12/FD_Curve.xlsx
@@ -496,332 +496,332 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.120005</v>
+        <v>0.12</v>
       </c>
       <c r="B6" t="n">
-        <v>4.25807</v>
+        <v>4.01965</v>
       </c>
       <c r="C6" t="n">
-        <v>4258.07</v>
+        <v>4019.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.150013</v>
+        <v>0.150008</v>
       </c>
       <c r="B7" t="n">
-        <v>5.45308</v>
+        <v>4.451090000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5453.08</v>
+        <v>4451.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.179965</v>
+        <v>0.179961</v>
       </c>
       <c r="B8" t="n">
-        <v>6.45377</v>
+        <v>4.776140000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6453.77</v>
+        <v>4776.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.209917</v>
+        <v>0.209913</v>
       </c>
       <c r="B9" t="n">
-        <v>7.61203</v>
+        <v>5.09651</v>
       </c>
       <c r="C9" t="n">
-        <v>7612.03</v>
+        <v>5096.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.23987</v>
+        <v>0.239865</v>
       </c>
       <c r="B10" t="n">
-        <v>8.63401</v>
+        <v>5.3696</v>
       </c>
       <c r="C10" t="n">
-        <v>8634.01</v>
+        <v>5369.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269785</v>
+        <v>0.269783</v>
       </c>
       <c r="B11" t="n">
-        <v>9.69697</v>
+        <v>5.61315</v>
       </c>
       <c r="C11" t="n">
-        <v>9696.969999999999</v>
+        <v>5613.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299686</v>
+        <v>0.299684</v>
       </c>
       <c r="B12" t="n">
-        <v>10.5</v>
+        <v>5.80555</v>
       </c>
       <c r="C12" t="n">
-        <v>10500</v>
+        <v>5805.55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329583</v>
+        <v>0.329585</v>
       </c>
       <c r="B13" t="n">
-        <v>10.8689</v>
+        <v>5.98492</v>
       </c>
       <c r="C13" t="n">
-        <v>10868.9</v>
+        <v>5984.92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359484</v>
+        <v>0.359486</v>
       </c>
       <c r="B14" t="n">
-        <v>11.2638</v>
+        <v>6.14533</v>
       </c>
       <c r="C14" t="n">
-        <v>11263.8</v>
+        <v>6145.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389385</v>
+        <v>0.389387</v>
       </c>
       <c r="B15" t="n">
-        <v>11.4339</v>
+        <v>6.27739</v>
       </c>
       <c r="C15" t="n">
-        <v>11433.9</v>
+        <v>6277.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419286</v>
+        <v>0.419288</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5755</v>
+        <v>6.41646</v>
       </c>
       <c r="C16" t="n">
-        <v>11575.5</v>
+        <v>6416.46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449187</v>
+        <v>0.449189</v>
       </c>
       <c r="B17" t="n">
-        <v>11.6985</v>
+        <v>6.52413</v>
       </c>
       <c r="C17" t="n">
-        <v>11698.5</v>
+        <v>6524.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479088</v>
+        <v>0.47909</v>
       </c>
       <c r="B18" t="n">
-        <v>11.7845</v>
+        <v>6.632359999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>11784.5</v>
+        <v>6632.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.508989</v>
+        <v>0.508991</v>
       </c>
       <c r="B19" t="n">
-        <v>11.8512</v>
+        <v>6.73932</v>
       </c>
       <c r="C19" t="n">
-        <v>11851.2</v>
+        <v>6739.32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.53889</v>
+        <v>0.538892</v>
       </c>
       <c r="B20" t="n">
-        <v>11.9089</v>
+        <v>6.835640000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>11908.9</v>
+        <v>6835.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.568791</v>
+        <v>0.568793</v>
       </c>
       <c r="B21" t="n">
-        <v>11.962</v>
+        <v>6.9225</v>
       </c>
       <c r="C21" t="n">
-        <v>11962</v>
+        <v>6922.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.598805</v>
+        <v>0.598807</v>
       </c>
       <c r="B22" t="n">
-        <v>12.0006</v>
+        <v>7.0059</v>
       </c>
       <c r="C22" t="n">
-        <v>12000.6</v>
+        <v>7005.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628945</v>
+        <v>0.628947</v>
       </c>
       <c r="B23" t="n">
-        <v>12.0322</v>
+        <v>7.08437</v>
       </c>
       <c r="C23" t="n">
-        <v>12032.2</v>
+        <v>7084.37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.65909</v>
+        <v>0.659088</v>
       </c>
       <c r="B24" t="n">
-        <v>12.061</v>
+        <v>7.158060000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>12061</v>
+        <v>7158.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.68923</v>
+        <v>0.689232</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0827</v>
+        <v>7.22684</v>
       </c>
       <c r="C25" t="n">
-        <v>12082.7</v>
+        <v>7226.84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719371</v>
+        <v>0.719373</v>
       </c>
       <c r="B26" t="n">
-        <v>12.0991</v>
+        <v>7.29229</v>
       </c>
       <c r="C26" t="n">
-        <v>12099.1</v>
+        <v>7292.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749516</v>
+        <v>0.749513</v>
       </c>
       <c r="B27" t="n">
-        <v>12.1124</v>
+        <v>7.355630000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>12112.4</v>
+        <v>7355.63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779656</v>
+        <v>0.779658</v>
       </c>
       <c r="B28" t="n">
-        <v>12.1221</v>
+        <v>7.41912</v>
       </c>
       <c r="C28" t="n">
-        <v>12122.1</v>
+        <v>7419.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8098</v>
+        <v>0.809798</v>
       </c>
       <c r="B29" t="n">
-        <v>12.1283</v>
+        <v>7.48151</v>
       </c>
       <c r="C29" t="n">
-        <v>12128.3</v>
+        <v>7481.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.839941</v>
+        <v>0.839939</v>
       </c>
       <c r="B30" t="n">
-        <v>12.1311</v>
+        <v>7.53757</v>
       </c>
       <c r="C30" t="n">
-        <v>12131.1</v>
+        <v>7537.57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.870081</v>
+        <v>0.8700830000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>12.1309</v>
+        <v>7.5892</v>
       </c>
       <c r="C31" t="n">
-        <v>12130.9</v>
+        <v>7589.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900226</v>
+        <v>0.900224</v>
       </c>
       <c r="B32" t="n">
-        <v>12.128</v>
+        <v>7.64278</v>
       </c>
       <c r="C32" t="n">
-        <v>12128</v>
+        <v>7642.78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.930366</v>
+        <v>0.930368</v>
       </c>
       <c r="B33" t="n">
-        <v>12.1223</v>
+        <v>7.69607</v>
       </c>
       <c r="C33" t="n">
-        <v>12122.3</v>
+        <v>7696.07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.960507</v>
+        <v>0.9605089999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>12.114</v>
+        <v>7.74141</v>
       </c>
       <c r="C34" t="n">
-        <v>12114</v>
+        <v>7741.41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9906509999999999</v>
+        <v>0.990649</v>
       </c>
       <c r="B35" t="n">
-        <v>12.1027</v>
+        <v>7.789359999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>12102.7</v>
+        <v>7789.36</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>1.02079</v>
       </c>
       <c r="B36" t="n">
-        <v>12.0886</v>
+        <v>7.836430000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>12088.6</v>
+        <v>7836.43</v>
       </c>
     </row>
     <row r="37">
@@ -840,21 +840,21 @@
         <v>1.05093</v>
       </c>
       <c r="B37" t="n">
-        <v>12.0721</v>
+        <v>7.877560000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>12072.1</v>
+        <v>7877.56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08108</v>
+        <v>1.08107</v>
       </c>
       <c r="B38" t="n">
-        <v>12.0531</v>
+        <v>7.92194</v>
       </c>
       <c r="C38" t="n">
-        <v>12053.1</v>
+        <v>7921.94</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>1.11122</v>
       </c>
       <c r="B39" t="n">
-        <v>12.0318</v>
+        <v>7.96144</v>
       </c>
       <c r="C39" t="n">
-        <v>12031.8</v>
+        <v>7961.44</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>1.14136</v>
       </c>
       <c r="B40" t="n">
-        <v>12.008</v>
+        <v>8.001710000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>12008</v>
+        <v>8001.71</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>1.1715</v>
       </c>
       <c r="B41" t="n">
-        <v>11.9816</v>
+        <v>8.03973</v>
       </c>
       <c r="C41" t="n">
-        <v>11981.6</v>
+        <v>8039.73</v>
       </c>
     </row>
     <row r="42">
@@ -895,21 +895,21 @@
         <v>1.20164</v>
       </c>
       <c r="B42" t="n">
-        <v>11.9522</v>
+        <v>8.076979999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>11952.2</v>
+        <v>8076.98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23179</v>
+        <v>1.23178</v>
       </c>
       <c r="B43" t="n">
-        <v>11.9202</v>
+        <v>8.112770000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>11920.2</v>
+        <v>8112.77</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>1.26193</v>
       </c>
       <c r="B44" t="n">
-        <v>11.8853</v>
+        <v>8.14733</v>
       </c>
       <c r="C44" t="n">
-        <v>11885.3</v>
+        <v>8147.33</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>1.29207</v>
       </c>
       <c r="B45" t="n">
-        <v>11.848</v>
+        <v>8.1808</v>
       </c>
       <c r="C45" t="n">
-        <v>11848</v>
+        <v>8180.8</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>1.32221</v>
       </c>
       <c r="B46" t="n">
-        <v>11.808</v>
+        <v>8.214180000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>11808</v>
+        <v>8214.18</v>
       </c>
     </row>
     <row r="47">
@@ -950,21 +950,21 @@
         <v>1.35235</v>
       </c>
       <c r="B47" t="n">
-        <v>11.7655</v>
+        <v>8.24446</v>
       </c>
       <c r="C47" t="n">
-        <v>11765.5</v>
+        <v>8244.459999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.38249</v>
+        <v>1.3825</v>
       </c>
       <c r="B48" t="n">
-        <v>11.7199</v>
+        <v>8.276680000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>11719.9</v>
+        <v>8276.68</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>1.41264</v>
       </c>
       <c r="B49" t="n">
-        <v>11.6715</v>
+        <v>8.305200000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>11671.5</v>
+        <v>8305.200000000001</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>1.44278</v>
       </c>
       <c r="B50" t="n">
-        <v>11.6205</v>
+        <v>8.3348</v>
       </c>
       <c r="C50" t="n">
-        <v>11620.5</v>
+        <v>8334.799999999999</v>
       </c>
     </row>
     <row r="51">
@@ -994,32 +994,32 @@
         <v>1.47292</v>
       </c>
       <c r="B51" t="n">
-        <v>11.5662</v>
+        <v>8.363160000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>11566.2</v>
+        <v>8363.16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50306</v>
+        <v>1.50307</v>
       </c>
       <c r="B52" t="n">
-        <v>11.5087</v>
+        <v>8.389469999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>11508.7</v>
+        <v>8389.469999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5332</v>
+        <v>1.53321</v>
       </c>
       <c r="B53" t="n">
-        <v>11.4479</v>
+        <v>8.416950000000002</v>
       </c>
       <c r="C53" t="n">
-        <v>11447.9</v>
+        <v>8416.950000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>1.56335</v>
       </c>
       <c r="B54" t="n">
-        <v>11.3838</v>
+        <v>8.44258</v>
       </c>
       <c r="C54" t="n">
-        <v>11383.8</v>
+        <v>8442.58</v>
       </c>
     </row>
     <row r="55">
@@ -1038,527 +1038,527 @@
         <v>1.59349</v>
       </c>
       <c r="B55" t="n">
-        <v>11.316</v>
+        <v>8.46698</v>
       </c>
       <c r="C55" t="n">
-        <v>11316</v>
+        <v>8466.98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6234</v>
+        <v>1.62363</v>
       </c>
       <c r="B56" t="n">
-        <v>11.2448</v>
+        <v>8.492030000000002</v>
       </c>
       <c r="C56" t="n">
-        <v>11244.8</v>
+        <v>8492.030000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65351</v>
+        <v>1.65377</v>
       </c>
       <c r="B57" t="n">
-        <v>11.169</v>
+        <v>8.515700000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>11169</v>
+        <v>8515.700000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.6833</v>
+        <v>1.68392</v>
       </c>
       <c r="B58" t="n">
-        <v>11.0891</v>
+        <v>8.53801</v>
       </c>
       <c r="C58" t="n">
-        <v>11089.1</v>
+        <v>8538.01</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71348</v>
+        <v>1.71406</v>
       </c>
       <c r="B59" t="n">
-        <v>11.0032</v>
+        <v>8.56058</v>
       </c>
       <c r="C59" t="n">
-        <v>11003.2</v>
+        <v>8560.58</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7434</v>
+        <v>1.7442</v>
       </c>
       <c r="B60" t="n">
-        <v>10.9127</v>
+        <v>8.582709999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>10912.7</v>
+        <v>8582.709999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77344</v>
+        <v>1.77434</v>
       </c>
       <c r="B61" t="n">
-        <v>10.8158</v>
+        <v>8.60347</v>
       </c>
       <c r="C61" t="n">
-        <v>10815.8</v>
+        <v>8603.469999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80347</v>
+        <v>1.80448</v>
       </c>
       <c r="B62" t="n">
-        <v>10.7134</v>
+        <v>8.623620000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>10713.4</v>
+        <v>8623.620000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83334</v>
+        <v>1.83463</v>
       </c>
       <c r="B63" t="n">
-        <v>10.6054</v>
+        <v>8.64386</v>
       </c>
       <c r="C63" t="n">
-        <v>10605.4</v>
+        <v>8643.860000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86348</v>
+        <v>1.86477</v>
       </c>
       <c r="B64" t="n">
-        <v>10.4897</v>
+        <v>8.66356</v>
       </c>
       <c r="C64" t="n">
-        <v>10489.7</v>
+        <v>8663.559999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89337</v>
+        <v>1.89491</v>
       </c>
       <c r="B65" t="n">
-        <v>10.3685</v>
+        <v>8.682270000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>10368.5</v>
+        <v>8682.27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92344</v>
+        <v>1.92505</v>
       </c>
       <c r="B66" t="n">
-        <v>10.2396</v>
+        <v>8.70022</v>
       </c>
       <c r="C66" t="n">
-        <v>10239.6</v>
+        <v>8700.219999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95344</v>
+        <v>1.95519</v>
       </c>
       <c r="B67" t="n">
-        <v>10.1051</v>
+        <v>8.71801</v>
       </c>
       <c r="C67" t="n">
-        <v>10105.1</v>
+        <v>8718.01</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98339</v>
+        <v>1.98533</v>
       </c>
       <c r="B68" t="n">
-        <v>9.96475</v>
+        <v>8.735520000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>9964.75</v>
+        <v>8735.52</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01348</v>
+        <v>2.01525</v>
       </c>
       <c r="B69" t="n">
-        <v>9.817260000000001</v>
+        <v>8.75249</v>
       </c>
       <c r="C69" t="n">
-        <v>9817.26</v>
+        <v>8752.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04342</v>
+        <v>2.04497</v>
       </c>
       <c r="B70" t="n">
-        <v>9.665889999999999</v>
+        <v>8.768739999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>9665.889999999999</v>
+        <v>8768.74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07353</v>
+        <v>2.0747</v>
       </c>
       <c r="B71" t="n">
-        <v>9.506590000000001</v>
+        <v>8.78434</v>
       </c>
       <c r="C71" t="n">
-        <v>9506.59</v>
+        <v>8784.34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1032</v>
+        <v>2.10443</v>
       </c>
       <c r="B72" t="n">
-        <v>9.34543</v>
+        <v>8.79954</v>
       </c>
       <c r="C72" t="n">
-        <v>9345.43</v>
+        <v>8799.540000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13365</v>
+        <v>2.13416</v>
       </c>
       <c r="B73" t="n">
-        <v>9.17595</v>
+        <v>8.81434</v>
       </c>
       <c r="C73" t="n">
-        <v>9175.950000000001</v>
+        <v>8814.34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16314</v>
+        <v>2.16389</v>
       </c>
       <c r="B74" t="n">
-        <v>9.007200000000001</v>
+        <v>8.82883</v>
       </c>
       <c r="C74" t="n">
-        <v>9007.200000000001</v>
+        <v>8828.83</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19376</v>
+        <v>2.19362</v>
       </c>
       <c r="B75" t="n">
-        <v>8.831580000000001</v>
+        <v>8.84291</v>
       </c>
       <c r="C75" t="n">
-        <v>8831.58</v>
+        <v>8842.91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2232</v>
+        <v>2.22335</v>
       </c>
       <c r="B76" t="n">
-        <v>8.657249999999999</v>
+        <v>8.856459999999998</v>
       </c>
       <c r="C76" t="n">
-        <v>8657.25</v>
+        <v>8856.459999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.2537</v>
+        <v>2.25308</v>
       </c>
       <c r="B77" t="n">
-        <v>8.478110000000001</v>
+        <v>8.86957</v>
       </c>
       <c r="C77" t="n">
-        <v>8478.110000000001</v>
+        <v>8869.57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28334</v>
+        <v>2.28281</v>
       </c>
       <c r="B78" t="n">
-        <v>8.30158</v>
+        <v>8.882250000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>8301.58</v>
+        <v>8882.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31361</v>
+        <v>2.31253</v>
       </c>
       <c r="B79" t="n">
-        <v>8.12444</v>
+        <v>8.89438</v>
       </c>
       <c r="C79" t="n">
-        <v>8124.44</v>
+        <v>8894.379999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34348</v>
+        <v>2.34227</v>
       </c>
       <c r="B80" t="n">
-        <v>7.94844</v>
+        <v>8.90616</v>
       </c>
       <c r="C80" t="n">
-        <v>7948.44</v>
+        <v>8906.16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37326</v>
+        <v>2.37286</v>
       </c>
       <c r="B81" t="n">
-        <v>7.778090000000001</v>
+        <v>8.917899999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>7778.09</v>
+        <v>8917.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40171</v>
+        <v>2.40358</v>
       </c>
       <c r="B82" t="n">
-        <v>7.61277</v>
+        <v>8.92924</v>
       </c>
       <c r="C82" t="n">
-        <v>7612.77</v>
+        <v>8929.24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43262</v>
+        <v>2.4343</v>
       </c>
       <c r="B83" t="n">
-        <v>7.43973</v>
+        <v>8.94023</v>
       </c>
       <c r="C83" t="n">
-        <v>7439.73</v>
+        <v>8940.23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46341</v>
+        <v>2.46502</v>
       </c>
       <c r="B84" t="n">
-        <v>7.267609999999999</v>
+        <v>8.95088</v>
       </c>
       <c r="C84" t="n">
-        <v>7267.61</v>
+        <v>8950.879999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49381</v>
+        <v>2.49574</v>
       </c>
       <c r="B85" t="n">
-        <v>7.10291</v>
+        <v>8.961069999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>7102.91</v>
+        <v>8961.07</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52372</v>
+        <v>2.52646</v>
       </c>
       <c r="B86" t="n">
-        <v>6.94558</v>
+        <v>8.970870000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>6945.58</v>
+        <v>8970.870000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55252</v>
+        <v>2.55668</v>
       </c>
       <c r="B87" t="n">
-        <v>6.796390000000001</v>
+        <v>8.980309999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>6796.39</v>
+        <v>8980.309999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.58132</v>
+        <v>2.58655</v>
       </c>
       <c r="B88" t="n">
-        <v>6.6563</v>
+        <v>8.989319999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>6656.3</v>
+        <v>8989.32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.61228</v>
+        <v>2.61641</v>
       </c>
       <c r="B89" t="n">
-        <v>6.51187</v>
+        <v>8.997959999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>6511.87</v>
+        <v>8997.959999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64336</v>
+        <v>2.64628</v>
       </c>
       <c r="B90" t="n">
-        <v>6.374420000000001</v>
+        <v>9.006170000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>6374.42</v>
+        <v>9006.17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67445</v>
+        <v>2.67615</v>
       </c>
       <c r="B91" t="n">
-        <v>6.2443</v>
+        <v>9.014049999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>6244.3</v>
+        <v>9014.049999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.70379</v>
+        <v>2.70601</v>
       </c>
       <c r="B92" t="n">
-        <v>6.12275</v>
+        <v>9.021520000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>6122.75</v>
+        <v>9021.52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73305</v>
+        <v>2.73588</v>
       </c>
       <c r="B93" t="n">
-        <v>6.00867</v>
+        <v>9.02863</v>
       </c>
       <c r="C93" t="n">
-        <v>6008.67</v>
+        <v>9028.629999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.7623</v>
+        <v>2.76575</v>
       </c>
       <c r="B94" t="n">
-        <v>5.9015</v>
+        <v>9.035399999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>5901.5</v>
+        <v>9035.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.79079</v>
+        <v>2.79561</v>
       </c>
       <c r="B95" t="n">
-        <v>5.80165</v>
+        <v>9.041790000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>5801.65</v>
+        <v>9041.790000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.82017</v>
+        <v>2.82548</v>
       </c>
       <c r="B96" t="n">
-        <v>5.7014</v>
+        <v>9.047799999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>5701.4</v>
+        <v>9047.799999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85217</v>
+        <v>2.85535</v>
       </c>
       <c r="B97" t="n">
-        <v>5.60017</v>
+        <v>9.05344</v>
       </c>
       <c r="C97" t="n">
-        <v>5600.17</v>
+        <v>9053.440000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.88417</v>
+        <v>2.88521</v>
       </c>
       <c r="B98" t="n">
-        <v>5.50557</v>
+        <v>9.058790000000002</v>
       </c>
       <c r="C98" t="n">
-        <v>5505.57</v>
+        <v>9058.790000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91436</v>
+        <v>2.91508</v>
       </c>
       <c r="B99" t="n">
-        <v>5.41725</v>
+        <v>9.063690000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>5417.25</v>
+        <v>9063.690000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94464</v>
+        <v>2.94494</v>
       </c>
       <c r="B100" t="n">
-        <v>5.33774</v>
+        <v>9.068290000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>5337.74</v>
+        <v>9068.290000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97536</v>
+        <v>2.97481</v>
       </c>
       <c r="B101" t="n">
-        <v>5.26704</v>
+        <v>9.07249</v>
       </c>
       <c r="C101" t="n">
-        <v>5267.04</v>
+        <v>9072.49</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.00496</v>
+        <v>3.00468</v>
       </c>
       <c r="B102" t="n">
-        <v>5.20683</v>
+        <v>9.076319999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>5206.83</v>
+        <v>9076.32</v>
       </c>
     </row>
   </sheetData>
